--- a/informe/tables/DCNN.xlsx
+++ b/informe/tables/DCNN.xlsx
@@ -615,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N7" sqref="A7:N7"/>
@@ -1147,6 +1147,54 @@
         <v>12.63</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="12" t="inlineStr">
+        <is>
+          <t>26/03/2022 16:58:33</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resnet50</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>131331</v>
+      </c>
+      <c r="E11" t="n">
+        <v>200</v>
+      </c>
+      <c r="F11" t="n">
+        <v>60</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="M11" t="n">
+        <v>44.49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/informe/tables/DCNN.xlsx
+++ b/informe/tables/DCNN.xlsx
@@ -1,76 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Projects\MangoGrading\informe\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21659B19-53F5-4AB4-B300-C7512B534CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3885" yWindow="2430" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+  <si>
+    <t>base model</t>
+  </si>
+  <si>
+    <t>out layers</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>batch size</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>specificity</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>auc</t>
+  </si>
+  <si>
+    <t>train time</t>
+  </si>
+  <si>
+    <t>eval time</t>
+  </si>
+  <si>
+    <t>26/03/2022 12:22:30</t>
+  </si>
+  <si>
+    <t>vgg16</t>
+  </si>
+  <si>
+    <t>26/03/2022 12:27:35</t>
+  </si>
+  <si>
+    <t>26/03/2022 12:31:23</t>
+  </si>
+  <si>
+    <t>26/03/2022 12:36:45</t>
+  </si>
+  <si>
+    <t>26/03/2022 13:47:12</t>
+  </si>
+  <si>
+    <t>resnet50</t>
+  </si>
+  <si>
+    <t>26/03/2022 14:04:47</t>
+  </si>
+  <si>
+    <t>mobilenet_1.00_224</t>
+  </si>
+  <si>
+    <t>26/03/2022 14:12:00</t>
+  </si>
+  <si>
+    <t>26/03/2022 14:17:35</t>
+  </si>
+  <si>
+    <t>26/03/2022 14:25:15</t>
+  </si>
+  <si>
+    <t>26/03/2022 16:58:33</t>
+  </si>
+  <si>
+    <t>27/03/2022 13:48:06</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:29:22</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:32:21</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:38:20</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:39:34</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:50:22</t>
+  </si>
+  <si>
+    <t>27/03/2022 15:56:05</t>
+  </si>
+  <si>
+    <t>27/03/2022 16:15:36</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -205,124 +319,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -610,589 +671,871 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AO11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="A7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="18.5703125" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
-    <col width="19.140625" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
-    <col width="7.42578125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
-    <col width="10" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="9.7109375" bestFit="1" customWidth="1" style="3" min="13" max="13"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" style="3" min="14" max="14"/>
+    <col min="1" max="1" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="n"/>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>base model</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>out layers</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>params</t>
-        </is>
-      </c>
-      <c r="E1" s="6" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="F1" s="6" t="inlineStr">
-        <is>
-          <t>batch size</t>
-        </is>
-      </c>
-      <c r="G1" s="6" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="H1" s="6" t="inlineStr">
-        <is>
-          <t>recall</t>
-        </is>
-      </c>
-      <c r="I1" s="6" t="inlineStr">
-        <is>
-          <t>specificity</t>
-        </is>
-      </c>
-      <c r="J1" s="6" t="inlineStr">
-        <is>
-          <t>precision</t>
-        </is>
-      </c>
-      <c r="K1" s="6" t="inlineStr">
-        <is>
-          <t>f1_score</t>
-        </is>
-      </c>
-      <c r="L1" s="6" t="inlineStr">
-        <is>
-          <t>auc</t>
-        </is>
-      </c>
-      <c r="M1" s="6" t="inlineStr">
-        <is>
-          <t>train time</t>
-        </is>
-      </c>
-      <c r="N1" s="6" t="inlineStr">
-        <is>
-          <t>eval time</t>
-        </is>
-      </c>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="1" t="n"/>
-      <c r="AD1" s="1" t="n"/>
-      <c r="AE1" s="1" t="n"/>
-      <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="n"/>
-      <c r="AH1" s="1" t="n"/>
-      <c r="AI1" s="1" t="n"/>
-      <c r="AJ1" s="1" t="n"/>
-      <c r="AK1" s="1" t="n"/>
-      <c r="AL1" s="1" t="n"/>
-      <c r="AM1" s="1" t="n"/>
-      <c r="AN1" s="1" t="n"/>
-      <c r="AO1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>26/03/2022 12:22:30</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>vgg16</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <v>52003</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.84</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.83</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.93</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.85</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>0.84</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>0.97</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>112.03</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>28.61</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>26/03/2022 12:27:35</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>vgg16</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>33027</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>100</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.87</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.86</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="I3">
+        <v>0.94</v>
+      </c>
+      <c r="J3">
         <v>0.87</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>0.87</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>0.97</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>116.16</v>
       </c>
-      <c r="N3" t="n">
-        <v>36.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>26/03/2022 12:31:23</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>vgg16</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="N3">
+        <v>36.020000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>33027</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>150</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.92</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.92</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.96</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.92</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.92</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.98</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>116.91</v>
       </c>
-      <c r="N4" t="n">
-        <v>33.73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>26/03/2022 12:36:45</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>vgg16</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="N4">
+        <v>33.729999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>33027</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>200</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>60</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.95</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.95</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.98</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.95</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.95</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.98</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>135.74</v>
       </c>
-      <c r="N5" t="n">
-        <v>33.88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>26/03/2022 13:47:12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>resnet50</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="N5">
+        <v>33.880000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>131331</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>200</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>60</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.33</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>0.5</v>
       </c>
-      <c r="M6" t="n">
-        <v>92.70999999999999</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6">
+        <v>92.71</v>
+      </c>
+      <c r="N6">
         <v>10.44</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2022 14:04:47</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mobilenet_1.00_224</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>65795</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>200</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>60</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.33</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.5</v>
       </c>
-      <c r="M7" t="n">
-        <v>71.18000000000001</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="N7">
         <v>2.74</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2022 14:12:00</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>vgg16</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>33027</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>200</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>60</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.86</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.86</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I8">
+        <v>0.94</v>
+      </c>
+      <c r="J8">
         <v>0.87</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>0.86</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.97</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>122.05</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>31.38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2022 14:17:35</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>mobilenet_1.00_224</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>65795</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>200</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>60</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="G9">
+        <v>0.69</v>
+      </c>
+      <c r="H9">
         <v>0.63</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.89</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.74</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.68</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>0.87</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>73.97</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>3.87</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2022 14:25:15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>resnet50</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>131331</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>200</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>60</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.63</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.46</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.91</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>0.71</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="K10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10">
         <v>0.82</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>99.34</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>12.63</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>26/03/2022 16:58:33</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>resnet50</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>131331</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>200</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.63</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.52</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.89</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>0.71</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>0.6</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>0.82</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>44.49</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>3.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>33027</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>0.88</v>
+      </c>
+      <c r="H12">
+        <v>0.88</v>
+      </c>
+      <c r="I12">
+        <v>0.94</v>
+      </c>
+      <c r="J12">
+        <v>0.89</v>
+      </c>
+      <c r="K12">
+        <v>0.88</v>
+      </c>
+      <c r="L12">
+        <v>0.97</v>
+      </c>
+      <c r="M12">
+        <v>111.64</v>
+      </c>
+      <c r="N12">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>131587</v>
+      </c>
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>0.68</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>0.88</v>
+      </c>
+      <c r="J13">
+        <v>0.71</v>
+      </c>
+      <c r="K13">
+        <v>0.65</v>
+      </c>
+      <c r="L13">
+        <v>0.86</v>
+      </c>
+      <c r="M13">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="N13">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>131587</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>0.68</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.88</v>
+      </c>
+      <c r="J14">
+        <v>0.71</v>
+      </c>
+      <c r="K14">
+        <v>0.65</v>
+      </c>
+      <c r="L14">
+        <v>0.86</v>
+      </c>
+      <c r="M14">
+        <v>75.959999999999994</v>
+      </c>
+      <c r="N14">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>33027</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>0.94</v>
+      </c>
+      <c r="H15">
+        <v>0.94</v>
+      </c>
+      <c r="I15">
+        <v>0.97</v>
+      </c>
+      <c r="J15">
+        <v>0.94</v>
+      </c>
+      <c r="K15">
+        <v>0.94</v>
+      </c>
+      <c r="L15">
+        <v>0.99</v>
+      </c>
+      <c r="M15">
+        <v>110.49</v>
+      </c>
+      <c r="N15">
+        <v>32.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>33027</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>0.94</v>
+      </c>
+      <c r="H16">
+        <v>0.94</v>
+      </c>
+      <c r="I16">
+        <v>0.97</v>
+      </c>
+      <c r="J16">
+        <v>0.94</v>
+      </c>
+      <c r="K16">
+        <v>0.94</v>
+      </c>
+      <c r="L16">
+        <v>0.99</v>
+      </c>
+      <c r="M16">
+        <v>110.49</v>
+      </c>
+      <c r="N16">
+        <v>32.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>262659</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>0.33</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0.51</v>
+      </c>
+      <c r="M17">
+        <v>161.5</v>
+      </c>
+      <c r="N17">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>131331</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>0.66</v>
+      </c>
+      <c r="H18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I18">
+        <v>0.9</v>
+      </c>
+      <c r="J18">
+        <v>0.72</v>
+      </c>
+      <c r="K18">
+        <v>0.63</v>
+      </c>
+      <c r="L18">
+        <v>0.85</v>
+      </c>
+      <c r="M18">
+        <v>137.87</v>
+      </c>
+      <c r="N18">
+        <v>14.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>66051</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>0.92</v>
+      </c>
+      <c r="H19">
+        <v>0.92</v>
+      </c>
+      <c r="I19">
+        <v>0.96</v>
+      </c>
+      <c r="J19">
+        <v>0.92</v>
+      </c>
+      <c r="K19">
+        <v>0.92</v>
+      </c>
+      <c r="L19">
+        <v>0.98</v>
+      </c>
+      <c r="M19">
+        <v>169.45</v>
+      </c>
+      <c r="N19">
+        <v>31.09</v>
       </c>
     </row>
   </sheetData>
